--- a/data/pca/factorExposure/factorExposure_2009-04-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01696297717736282</v>
+        <v>0.01646557604413771</v>
       </c>
       <c r="C2">
-        <v>0.002008941240740358</v>
+        <v>0.00137150782948533</v>
       </c>
       <c r="D2">
-        <v>0.009858551146848688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01029159888093742</v>
+      </c>
+      <c r="E2">
+        <v>0.002214674573908966</v>
+      </c>
+      <c r="F2">
+        <v>0.01886382302746603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08578578642292517</v>
+        <v>0.08886048366576486</v>
       </c>
       <c r="C4">
-        <v>0.01993032008609823</v>
+        <v>0.01553741009423142</v>
       </c>
       <c r="D4">
-        <v>0.08242754748450594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08548793863932212</v>
+      </c>
+      <c r="E4">
+        <v>0.03559776228174332</v>
+      </c>
+      <c r="F4">
+        <v>-0.04255039715257111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006794934987454609</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.94501022457737e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002670131512683395</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001433982475539757</v>
+      </c>
+      <c r="F5">
+        <v>0.0002353469235925006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1600976261567937</v>
+        <v>0.1661221921787389</v>
       </c>
       <c r="C6">
-        <v>0.03653089961766579</v>
+        <v>0.03464858366700119</v>
       </c>
       <c r="D6">
-        <v>-0.02435837746566035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01469295412102071</v>
+      </c>
+      <c r="E6">
+        <v>0.01963727643298968</v>
+      </c>
+      <c r="F6">
+        <v>-0.05601354486514484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05527868920715586</v>
+        <v>0.0599105195480706</v>
       </c>
       <c r="C7">
-        <v>0.001682990973682707</v>
+        <v>-0.001380903041960017</v>
       </c>
       <c r="D7">
-        <v>0.04746596812082692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05256794263294073</v>
+      </c>
+      <c r="E7">
+        <v>0.01720747837866932</v>
+      </c>
+      <c r="F7">
+        <v>-0.05145827266025123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05756853981567048</v>
+        <v>0.05474063806365253</v>
       </c>
       <c r="C8">
-        <v>-0.009754025754244023</v>
+        <v>-0.01149132224920733</v>
       </c>
       <c r="D8">
-        <v>0.03023235863874148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03253640528900686</v>
+      </c>
+      <c r="E8">
+        <v>0.01244440674301511</v>
+      </c>
+      <c r="F8">
+        <v>0.03400836883150677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06672819179704287</v>
+        <v>0.06948829501457843</v>
       </c>
       <c r="C9">
-        <v>0.01563441825713256</v>
+        <v>0.01121495122813495</v>
       </c>
       <c r="D9">
-        <v>0.08634551295144566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08966902167816428</v>
+      </c>
+      <c r="E9">
+        <v>0.03401003157211441</v>
+      </c>
+      <c r="F9">
+        <v>-0.06206249563084607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09273937585760569</v>
+        <v>0.09007452310789985</v>
       </c>
       <c r="C10">
-        <v>0.02255003608923065</v>
+        <v>0.02489341392215405</v>
       </c>
       <c r="D10">
-        <v>-0.1641522694834394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.154440679548702</v>
+      </c>
+      <c r="E10">
+        <v>-0.04172368513512872</v>
+      </c>
+      <c r="F10">
+        <v>0.07185852312424866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08742061145523129</v>
+        <v>0.08465128556159029</v>
       </c>
       <c r="C11">
-        <v>0.0172916794517157</v>
+        <v>0.01228167638999867</v>
       </c>
       <c r="D11">
-        <v>0.1210240872637723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1253134791452923</v>
+      </c>
+      <c r="E11">
+        <v>0.05900929376155168</v>
+      </c>
+      <c r="F11">
+        <v>-0.01425209711585839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09229280148129326</v>
+        <v>0.08758584150963393</v>
       </c>
       <c r="C12">
-        <v>0.01527149925028219</v>
+        <v>0.009683710216709517</v>
       </c>
       <c r="D12">
-        <v>0.1265380984071202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1384301733099287</v>
+      </c>
+      <c r="E12">
+        <v>0.06211338678365991</v>
+      </c>
+      <c r="F12">
+        <v>-0.01776299147605011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04430354104748101</v>
+        <v>0.04461421022747512</v>
       </c>
       <c r="C13">
-        <v>0.007556605063387135</v>
+        <v>0.004057891245162609</v>
       </c>
       <c r="D13">
-        <v>0.04960363157047683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05722812156186038</v>
+      </c>
+      <c r="E13">
+        <v>0.003594125565202202</v>
+      </c>
+      <c r="F13">
+        <v>-0.0152960860338692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01879132417026445</v>
+        <v>0.02164420517671149</v>
       </c>
       <c r="C14">
-        <v>0.01477571844674771</v>
+        <v>0.01374084812203513</v>
       </c>
       <c r="D14">
-        <v>0.03281573658595283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03618242534311449</v>
+      </c>
+      <c r="E14">
+        <v>0.0249485161407898</v>
+      </c>
+      <c r="F14">
+        <v>-0.02015679519576978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03386096337933395</v>
+        <v>0.03474686427081915</v>
       </c>
       <c r="C15">
-        <v>0.008432444347839496</v>
+        <v>0.006641659238469051</v>
       </c>
       <c r="D15">
-        <v>0.05138345114196274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05166748241833971</v>
+      </c>
+      <c r="E15">
+        <v>0.01702987151841139</v>
+      </c>
+      <c r="F15">
+        <v>-0.02834785760608837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06881442845779072</v>
+        <v>0.06796084394369425</v>
       </c>
       <c r="C16">
-        <v>0.00624924672254859</v>
+        <v>0.001280925410580934</v>
       </c>
       <c r="D16">
-        <v>0.1222179194731759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1332131764048062</v>
+      </c>
+      <c r="E16">
+        <v>0.07074327345971222</v>
+      </c>
+      <c r="F16">
+        <v>-0.01598623568393684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002351586504965261</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001073725491181838</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002013658476260863</v>
+      </c>
+      <c r="E17">
+        <v>0.004896095041958305</v>
+      </c>
+      <c r="F17">
+        <v>0.004268240603198245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02939987973184353</v>
+        <v>0.04629961819160857</v>
       </c>
       <c r="C18">
-        <v>-7.310063627686956e-05</v>
+        <v>-5.032401334273175e-05</v>
       </c>
       <c r="D18">
-        <v>0.02281288973246672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02221907098889823</v>
+      </c>
+      <c r="E18">
+        <v>-0.004770584806384886</v>
+      </c>
+      <c r="F18">
+        <v>0.01651480360483531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06249622389769311</v>
+        <v>0.06187933220691393</v>
       </c>
       <c r="C20">
-        <v>0.005351247504950236</v>
+        <v>0.002341580568095152</v>
       </c>
       <c r="D20">
-        <v>0.0814619790573657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08532464432360265</v>
+      </c>
+      <c r="E20">
+        <v>0.06769244154303344</v>
+      </c>
+      <c r="F20">
+        <v>-0.03400516636896253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03981939250629587</v>
+        <v>0.04195637302444059</v>
       </c>
       <c r="C21">
-        <v>0.009914223865173181</v>
+        <v>0.007324968557302639</v>
       </c>
       <c r="D21">
-        <v>0.03992912473203364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03977472582970181</v>
+      </c>
+      <c r="E21">
+        <v>0.001262459302652651</v>
+      </c>
+      <c r="F21">
+        <v>0.01768811830577117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04516645625020282</v>
+        <v>0.0441975718895528</v>
       </c>
       <c r="C22">
-        <v>0.003837259064518602</v>
+        <v>0.002525904797164052</v>
       </c>
       <c r="D22">
-        <v>0.002047053921657222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01202050756510561</v>
+      </c>
+      <c r="E22">
+        <v>0.03586857431115167</v>
+      </c>
+      <c r="F22">
+        <v>0.1022343664546195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04517511115592086</v>
+        <v>0.04420497185841261</v>
       </c>
       <c r="C23">
-        <v>0.00383958307040194</v>
+        <v>0.00252811179502443</v>
       </c>
       <c r="D23">
-        <v>0.002038382646211116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01201379286839749</v>
+      </c>
+      <c r="E23">
+        <v>0.03587547476052764</v>
+      </c>
+      <c r="F23">
+        <v>0.1022755108378869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07646692077365595</v>
+        <v>0.0743620677472772</v>
       </c>
       <c r="C24">
-        <v>0.00716823752438957</v>
+        <v>0.00239380547464738</v>
       </c>
       <c r="D24">
-        <v>0.1248419469310386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1276310916685456</v>
+      </c>
+      <c r="E24">
+        <v>0.05557727910950187</v>
+      </c>
+      <c r="F24">
+        <v>-0.02555409243629196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08145441054395768</v>
+        <v>0.0788840768159671</v>
       </c>
       <c r="C25">
-        <v>0.009740156379367185</v>
+        <v>0.005334127728953777</v>
       </c>
       <c r="D25">
-        <v>0.1120790004905662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1152522234811169</v>
+      </c>
+      <c r="E25">
+        <v>0.04406578569110403</v>
+      </c>
+      <c r="F25">
+        <v>-0.02119640389106482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05662577997514935</v>
+        <v>0.06175167633163964</v>
       </c>
       <c r="C26">
-        <v>0.01909858895384987</v>
+        <v>0.01623482254366208</v>
       </c>
       <c r="D26">
-        <v>0.04898723916419687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05565514343677611</v>
+      </c>
+      <c r="E26">
+        <v>0.03492541843147107</v>
+      </c>
+      <c r="F26">
+        <v>0.008532489159542302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1492233378358467</v>
+        <v>0.1543138716684196</v>
       </c>
       <c r="C28">
-        <v>0.02605575499973214</v>
+        <v>0.03072109443961435</v>
       </c>
       <c r="D28">
-        <v>-0.2480522039721026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2461352688219271</v>
+      </c>
+      <c r="E28">
+        <v>-0.06356780710865877</v>
+      </c>
+      <c r="F28">
+        <v>-0.01792875427137627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02579115026902334</v>
+        <v>0.02794619154747994</v>
       </c>
       <c r="C29">
-        <v>0.009998132284791272</v>
+        <v>0.009167990921420996</v>
       </c>
       <c r="D29">
-        <v>0.0324216250186973</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03440078198538281</v>
+      </c>
+      <c r="E29">
+        <v>0.01683440685195296</v>
+      </c>
+      <c r="F29">
+        <v>0.01891889572726184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05226996704029646</v>
+        <v>0.0512794807179501</v>
       </c>
       <c r="C30">
-        <v>0.006134090908605753</v>
+        <v>0.002225462482684484</v>
       </c>
       <c r="D30">
-        <v>0.08196908839985806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08660169089764017</v>
+      </c>
+      <c r="E30">
+        <v>0.02117120990474867</v>
+      </c>
+      <c r="F30">
+        <v>-0.1102230048523344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05136464767484368</v>
+        <v>0.051866115635752</v>
       </c>
       <c r="C31">
-        <v>0.0190116133045767</v>
+        <v>0.01702083364142939</v>
       </c>
       <c r="D31">
-        <v>0.02719926126863565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0297675281651265</v>
+      </c>
+      <c r="E31">
+        <v>0.03136613514501677</v>
+      </c>
+      <c r="F31">
+        <v>0.01058461099763663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04459857966435701</v>
+        <v>0.04982596437491995</v>
       </c>
       <c r="C32">
-        <v>0.001832879413267055</v>
+        <v>-0.00109483488971997</v>
       </c>
       <c r="D32">
-        <v>0.03344179993477375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03748491592829236</v>
+      </c>
+      <c r="E32">
+        <v>0.03476509080699416</v>
+      </c>
+      <c r="F32">
+        <v>0.001911121057893412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08627845527227372</v>
+        <v>0.08767831104307459</v>
       </c>
       <c r="C33">
-        <v>0.01369546876080192</v>
+        <v>0.008287676548611901</v>
       </c>
       <c r="D33">
-        <v>0.09639418547137726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1074090545447404</v>
+      </c>
+      <c r="E33">
+        <v>0.06069198893485576</v>
+      </c>
+      <c r="F33">
+        <v>-0.02345637110801514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06433805011711867</v>
+        <v>0.06407679813817421</v>
       </c>
       <c r="C34">
-        <v>0.01534495238132259</v>
+        <v>0.01077189020243399</v>
       </c>
       <c r="D34">
-        <v>0.1023551393869786</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1135102955118625</v>
+      </c>
+      <c r="E34">
+        <v>0.0454965041381387</v>
+      </c>
+      <c r="F34">
+        <v>-0.03909862195125518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02743756117879809</v>
+        <v>0.02851252542202053</v>
       </c>
       <c r="C35">
-        <v>0.005265449995110165</v>
+        <v>0.00458552016172351</v>
       </c>
       <c r="D35">
-        <v>0.009464027408086263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01268802614617392</v>
+      </c>
+      <c r="E35">
+        <v>0.0194531264990997</v>
+      </c>
+      <c r="F35">
+        <v>0.002496297776876955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02310354905109114</v>
+        <v>0.02777641323064693</v>
       </c>
       <c r="C36">
-        <v>0.008409452998006623</v>
+        <v>0.00751352467469442</v>
       </c>
       <c r="D36">
-        <v>0.04042219517618795</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04352546358192398</v>
+      </c>
+      <c r="E36">
+        <v>0.02491890063357187</v>
+      </c>
+      <c r="F36">
+        <v>-0.01793322340572629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003087945544250232</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008658411136003361</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003070756683116361</v>
+      </c>
+      <c r="E37">
+        <v>0.001056327808002126</v>
+      </c>
+      <c r="F37">
+        <v>0.001488210502696398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1016834280519095</v>
+        <v>0.09306281029769595</v>
       </c>
       <c r="C39">
-        <v>0.02191065516604324</v>
+        <v>0.01593619648564389</v>
       </c>
       <c r="D39">
-        <v>0.1564510377420497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.154524552019648</v>
+      </c>
+      <c r="E39">
+        <v>0.0742839142391914</v>
+      </c>
+      <c r="F39">
+        <v>-0.003758984546668808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04288315361387916</v>
+        <v>0.04825514121643409</v>
       </c>
       <c r="C40">
-        <v>0.0118090438743942</v>
+        <v>0.01026213315048301</v>
       </c>
       <c r="D40">
-        <v>0.03284129114526683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03945802969279011</v>
+      </c>
+      <c r="E40">
+        <v>0.004162948995559169</v>
+      </c>
+      <c r="F40">
+        <v>0.02333995808416946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02631696828461164</v>
+        <v>0.02845469210739946</v>
       </c>
       <c r="C41">
-        <v>0.008432753804884095</v>
+        <v>0.007992460614608289</v>
       </c>
       <c r="D41">
-        <v>0.01309577907495326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01462812422563181</v>
+      </c>
+      <c r="E41">
+        <v>0.01201973291370592</v>
+      </c>
+      <c r="F41">
+        <v>0.01103766090397654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04047503585678559</v>
+        <v>0.03937485291089415</v>
       </c>
       <c r="C43">
-        <v>0.009178946836075744</v>
+        <v>0.008250847649525866</v>
       </c>
       <c r="D43">
-        <v>0.02294447746292778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02362957052294845</v>
+      </c>
+      <c r="E43">
+        <v>0.02861175404046245</v>
+      </c>
+      <c r="F43">
+        <v>0.02453895136421966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06203496756111915</v>
+        <v>0.06937140410526475</v>
       </c>
       <c r="C44">
-        <v>0.02232757395769617</v>
+        <v>0.01872721635714149</v>
       </c>
       <c r="D44">
-        <v>0.07812315535206375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08713652112593774</v>
+      </c>
+      <c r="E44">
+        <v>0.07828350503635217</v>
+      </c>
+      <c r="F44">
+        <v>-0.2105737706344848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001374214227144902</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.14464154824458e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.994253733848108e-06</v>
+      </c>
+      <c r="E45">
+        <v>-0.0003900190541712557</v>
+      </c>
+      <c r="F45">
+        <v>2.412765599859805e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02303641224344469</v>
+        <v>0.02531334628422737</v>
       </c>
       <c r="C46">
-        <v>0.005205332007664726</v>
+        <v>0.004286018316365096</v>
       </c>
       <c r="D46">
-        <v>0.01488723957687787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01781294284546456</v>
+      </c>
+      <c r="E46">
+        <v>0.03488746903918266</v>
+      </c>
+      <c r="F46">
+        <v>0.02462003300980458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05408560746806591</v>
+        <v>0.05304014779462808</v>
       </c>
       <c r="C47">
-        <v>0.007440305975671623</v>
+        <v>0.005805473456920248</v>
       </c>
       <c r="D47">
-        <v>0.01186795896845189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01413055666547955</v>
+      </c>
+      <c r="E47">
+        <v>0.02452845729416173</v>
+      </c>
+      <c r="F47">
+        <v>0.04529300389863632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04931550727229412</v>
+        <v>0.05311010076593477</v>
       </c>
       <c r="C48">
-        <v>0.006412471775066179</v>
+        <v>0.003807975440591899</v>
       </c>
       <c r="D48">
-        <v>0.05743091751988351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05888468140309323</v>
+      </c>
+      <c r="E48">
+        <v>0.007739957068426079</v>
+      </c>
+      <c r="F48">
+        <v>-0.01435387506565925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1952076253417531</v>
+        <v>0.1975645579984343</v>
       </c>
       <c r="C49">
-        <v>0.02822483551064561</v>
+        <v>0.0243889481555885</v>
       </c>
       <c r="D49">
-        <v>-0.01012384231997155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004363343580429596</v>
+      </c>
+      <c r="E49">
+        <v>0.01798208779883601</v>
+      </c>
+      <c r="F49">
+        <v>-0.06064327433570493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04949969357214678</v>
+        <v>0.05227571587890591</v>
       </c>
       <c r="C50">
-        <v>0.01471744090398917</v>
+        <v>0.01321527208966594</v>
       </c>
       <c r="D50">
-        <v>0.02619794672713287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02844145870650424</v>
+      </c>
+      <c r="E50">
+        <v>0.03418426262000304</v>
+      </c>
+      <c r="F50">
+        <v>-0.005870008002280156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1515278584742202</v>
+        <v>0.1452424551903063</v>
       </c>
       <c r="C52">
-        <v>0.02516724443073724</v>
+        <v>0.02137777399538417</v>
       </c>
       <c r="D52">
-        <v>0.04365544534752376</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04595021048262058</v>
+      </c>
+      <c r="E52">
+        <v>0.03574731412045149</v>
+      </c>
+      <c r="F52">
+        <v>-0.03562438100460406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1747193197971455</v>
+        <v>0.1674305645240881</v>
       </c>
       <c r="C53">
-        <v>0.02799257469692519</v>
+        <v>0.02544913460694359</v>
       </c>
       <c r="D53">
-        <v>0.005221807140811391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007783526727056851</v>
+      </c>
+      <c r="E53">
+        <v>0.04405424725671826</v>
+      </c>
+      <c r="F53">
+        <v>-0.08248127318994303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0147827752549488</v>
+        <v>0.01804565198818317</v>
       </c>
       <c r="C54">
-        <v>0.01193533421564102</v>
+        <v>0.0113140296005014</v>
       </c>
       <c r="D54">
-        <v>0.02895355093701795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02872745993309348</v>
+      </c>
+      <c r="E54">
+        <v>0.02219794701949262</v>
+      </c>
+      <c r="F54">
+        <v>0.003429667702484663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1199721252195037</v>
+        <v>0.1172231478957227</v>
       </c>
       <c r="C55">
-        <v>0.02464784354377845</v>
+        <v>0.02234615525752609</v>
       </c>
       <c r="D55">
-        <v>0.005910318903852198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01356263893188582</v>
+      </c>
+      <c r="E55">
+        <v>0.04408598104482955</v>
+      </c>
+      <c r="F55">
+        <v>-0.02689522126375692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805781027154505</v>
+        <v>0.1748744831529863</v>
       </c>
       <c r="C56">
-        <v>0.02633468737599844</v>
+        <v>0.02404905772600066</v>
       </c>
       <c r="D56">
-        <v>-0.002948924009417567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0004806018970473249</v>
+      </c>
+      <c r="E56">
+        <v>0.04187705483732805</v>
+      </c>
+      <c r="F56">
+        <v>-0.04295120299699041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04483458636353459</v>
+        <v>0.04399659578427373</v>
       </c>
       <c r="C58">
-        <v>0.00430366080802351</v>
+        <v>0.0003323112769709331</v>
       </c>
       <c r="D58">
-        <v>0.07321437405379823</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08167625104537249</v>
+      </c>
+      <c r="E58">
+        <v>0.04439747769976963</v>
+      </c>
+      <c r="F58">
+        <v>0.0480279982759989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1697659954620691</v>
+        <v>0.1747028945989734</v>
       </c>
       <c r="C59">
-        <v>0.0262131862694835</v>
+        <v>0.02995801847333442</v>
       </c>
       <c r="D59">
-        <v>-0.2124364542570819</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.211081391913112</v>
+      </c>
+      <c r="E59">
+        <v>-0.05824722994976208</v>
+      </c>
+      <c r="F59">
+        <v>0.06434461027166904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2252898709399154</v>
+        <v>0.2201552185462135</v>
       </c>
       <c r="C60">
-        <v>0.008001884342653136</v>
+        <v>0.003472429297956875</v>
       </c>
       <c r="D60">
-        <v>0.0215386024915762</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02209774714511016</v>
+      </c>
+      <c r="E60">
+        <v>-0.0158045551448083</v>
+      </c>
+      <c r="F60">
+        <v>0.006582825193074552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07384579431778453</v>
+        <v>0.06995236446358104</v>
       </c>
       <c r="C61">
-        <v>0.01552348080707387</v>
+        <v>0.01056841168833347</v>
       </c>
       <c r="D61">
-        <v>0.1167316045718658</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1193984986146264</v>
+      </c>
+      <c r="E61">
+        <v>0.04363123292885179</v>
+      </c>
+      <c r="F61">
+        <v>0.003869271377086848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1712050738663863</v>
+        <v>0.1671429305674783</v>
       </c>
       <c r="C62">
-        <v>0.02906963155867984</v>
+        <v>0.02613652547995999</v>
       </c>
       <c r="D62">
-        <v>0.002626018114039053</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007979121378207448</v>
+      </c>
+      <c r="E62">
+        <v>0.04806741094721863</v>
+      </c>
+      <c r="F62">
+        <v>-0.02459376499466796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04252239328362877</v>
+        <v>0.04789538060822959</v>
       </c>
       <c r="C63">
-        <v>0.005991867318108156</v>
+        <v>0.003497946924136913</v>
       </c>
       <c r="D63">
-        <v>0.06257842455978921</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07052296302357845</v>
+      </c>
+      <c r="E63">
+        <v>0.0311280563068368</v>
+      </c>
+      <c r="F63">
+        <v>0.004977433651097811</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1143313494601074</v>
+        <v>0.1113813936180811</v>
       </c>
       <c r="C64">
-        <v>0.01936486042833301</v>
+        <v>0.01562078911520568</v>
       </c>
       <c r="D64">
-        <v>0.04610351474366441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04971009197642001</v>
+      </c>
+      <c r="E64">
+        <v>0.03390892941789196</v>
+      </c>
+      <c r="F64">
+        <v>-0.02133105212606086</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1502516065214639</v>
+        <v>0.1559330044294615</v>
       </c>
       <c r="C65">
-        <v>0.04225135150118306</v>
+        <v>0.04100414552855215</v>
       </c>
       <c r="D65">
-        <v>-0.04771504922832305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03669218107355627</v>
+      </c>
+      <c r="E65">
+        <v>0.01306680271085735</v>
+      </c>
+      <c r="F65">
+        <v>-0.05373369166870436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1236849449396662</v>
+        <v>0.1127868794053805</v>
       </c>
       <c r="C66">
-        <v>0.02091039659724411</v>
+        <v>0.01432958467373618</v>
       </c>
       <c r="D66">
-        <v>0.1406279320352357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1439327637739899</v>
+      </c>
+      <c r="E66">
+        <v>0.07058925038684695</v>
+      </c>
+      <c r="F66">
+        <v>-0.009134682845349488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05999224765670081</v>
+        <v>0.05297036626021508</v>
       </c>
       <c r="C67">
-        <v>0.006487751201055846</v>
+        <v>0.003939475392524449</v>
       </c>
       <c r="D67">
-        <v>0.05163138491271525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05475426423018863</v>
+      </c>
+      <c r="E67">
+        <v>0.02156815381550313</v>
+      </c>
+      <c r="F67">
+        <v>0.08332822970585931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1198084217035295</v>
+        <v>0.1263259345026193</v>
       </c>
       <c r="C68">
-        <v>0.03454151106487247</v>
+        <v>0.04022676623104292</v>
       </c>
       <c r="D68">
-        <v>-0.252233476725945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2514635278581867</v>
+      </c>
+      <c r="E68">
+        <v>-0.08916242144694952</v>
+      </c>
+      <c r="F68">
+        <v>-0.03060171059699535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03967042380673048</v>
+        <v>0.0390663364584193</v>
       </c>
       <c r="C69">
-        <v>0.003491290247887547</v>
+        <v>0.002436746373357838</v>
       </c>
       <c r="D69">
-        <v>0.009373426560445652</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009991805976506681</v>
+      </c>
+      <c r="E69">
+        <v>0.03066365860433916</v>
+      </c>
+      <c r="F69">
+        <v>0.02114212130118381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06896161637412301</v>
+        <v>0.0699676003103965</v>
       </c>
       <c r="C70">
-        <v>-0.02282195461810824</v>
+        <v>-0.02458201605550897</v>
       </c>
       <c r="D70">
-        <v>0.03841184963025128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03696659627132706</v>
+      </c>
+      <c r="E70">
+        <v>-0.04438250359026246</v>
+      </c>
+      <c r="F70">
+        <v>0.3549826435572181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1395867932351505</v>
+        <v>0.1470342419816956</v>
       </c>
       <c r="C71">
-        <v>0.04014207054718867</v>
+        <v>0.04564541033950095</v>
       </c>
       <c r="D71">
-        <v>-0.2655462645827335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2604551580522514</v>
+      </c>
+      <c r="E71">
+        <v>-0.09908900064596256</v>
+      </c>
+      <c r="F71">
+        <v>-0.03142740040564324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382430071593282</v>
+        <v>0.1444505627755159</v>
       </c>
       <c r="C72">
-        <v>0.03276341320710177</v>
+        <v>0.03192125954536421</v>
       </c>
       <c r="D72">
-        <v>0.004895372866527195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002272836790801095</v>
+      </c>
+      <c r="E72">
+        <v>0.04766059908072192</v>
+      </c>
+      <c r="F72">
+        <v>-0.02958425765369817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.195873385497233</v>
+        <v>0.2002849731582219</v>
       </c>
       <c r="C73">
-        <v>0.02174263949232369</v>
+        <v>0.01652718173995288</v>
       </c>
       <c r="D73">
-        <v>0.009836651595557393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01710093488595869</v>
+      </c>
+      <c r="E73">
+        <v>0.06339703581276382</v>
+      </c>
+      <c r="F73">
+        <v>-0.01798841377750423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08844408910667746</v>
+        <v>0.08844708641879488</v>
       </c>
       <c r="C74">
-        <v>0.01660008183359522</v>
+        <v>0.01461876056199721</v>
       </c>
       <c r="D74">
-        <v>0.01235536152818256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01759883727369648</v>
+      </c>
+      <c r="E74">
+        <v>0.05029328060715447</v>
+      </c>
+      <c r="F74">
+        <v>-0.04787711681042214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1298942569207455</v>
+        <v>0.1224021707487529</v>
       </c>
       <c r="C75">
-        <v>0.03498206378890828</v>
+        <v>0.03168313776610736</v>
       </c>
       <c r="D75">
-        <v>0.02700239625711</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03219173143710338</v>
+      </c>
+      <c r="E75">
+        <v>0.06373343712050539</v>
+      </c>
+      <c r="F75">
+        <v>-0.01095424011225574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07885222427753648</v>
+        <v>0.09185441425592754</v>
       </c>
       <c r="C77">
-        <v>0.01496844299159228</v>
+        <v>0.01069811282028024</v>
       </c>
       <c r="D77">
-        <v>0.1223877118876166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1222762025357107</v>
+      </c>
+      <c r="E77">
+        <v>0.05400735723463178</v>
+      </c>
+      <c r="F77">
+        <v>-0.05077335914344412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09681596762316935</v>
+        <v>0.09832514176796277</v>
       </c>
       <c r="C78">
-        <v>0.04408462187374792</v>
+        <v>0.04050838445493478</v>
       </c>
       <c r="D78">
-        <v>0.1179763633286714</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1158082067868449</v>
+      </c>
+      <c r="E78">
+        <v>0.07859062738364937</v>
+      </c>
+      <c r="F78">
+        <v>-0.03884866960669019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1690814785351822</v>
+        <v>0.1645959213363265</v>
       </c>
       <c r="C79">
-        <v>0.03265413716158371</v>
+        <v>0.02928860318492291</v>
       </c>
       <c r="D79">
-        <v>0.01357814443672604</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0190717814944993</v>
+      </c>
+      <c r="E79">
+        <v>0.05010022968485241</v>
+      </c>
+      <c r="F79">
+        <v>-0.006923967236692642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07914684537757291</v>
+        <v>0.0772182561302089</v>
       </c>
       <c r="C80">
-        <v>0.00374306504879733</v>
+        <v>0.001400426549557523</v>
       </c>
       <c r="D80">
-        <v>0.04848828533034034</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04993335363813832</v>
+      </c>
+      <c r="E80">
+        <v>0.04194760690670361</v>
+      </c>
+      <c r="F80">
+        <v>0.05100042217755312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1177886450999867</v>
+        <v>0.1117885012295446</v>
       </c>
       <c r="C81">
-        <v>0.03680613729877624</v>
+        <v>0.03498673420348222</v>
       </c>
       <c r="D81">
-        <v>0.004756926807504842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01042110861357201</v>
+      </c>
+      <c r="E81">
+        <v>0.05671693300894137</v>
+      </c>
+      <c r="F81">
+        <v>-0.001273927103340704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1633891420455962</v>
+        <v>0.1616150357478074</v>
       </c>
       <c r="C82">
-        <v>0.03229851332882789</v>
+        <v>0.02982419945043418</v>
       </c>
       <c r="D82">
-        <v>0.005444740483247433</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.005554924457353872</v>
+      </c>
+      <c r="E82">
+        <v>0.04384259673147069</v>
+      </c>
+      <c r="F82">
+        <v>-0.08165124014036425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0544293487754733</v>
+        <v>0.05036480632233336</v>
       </c>
       <c r="C83">
-        <v>0.005312289923533177</v>
+        <v>0.003354332746984957</v>
       </c>
       <c r="D83">
-        <v>0.03805195223126636</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.038066427976919</v>
+      </c>
+      <c r="E83">
+        <v>-0.008545679751097386</v>
+      </c>
+      <c r="F83">
+        <v>0.02777239337518509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05614415280979621</v>
+        <v>0.05262859639325261</v>
       </c>
       <c r="C84">
-        <v>0.01381871162778954</v>
+        <v>0.01101683626585523</v>
       </c>
       <c r="D84">
-        <v>0.07228673269714639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07329038685771087</v>
+      </c>
+      <c r="E84">
+        <v>0.02178597494091414</v>
+      </c>
+      <c r="F84">
+        <v>-0.003516180420678731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1400736311879184</v>
+        <v>0.1346034584452222</v>
       </c>
       <c r="C85">
-        <v>0.03571443578144072</v>
+        <v>0.03319880761180612</v>
       </c>
       <c r="D85">
-        <v>0.008622089685721153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01264808091119414</v>
+      </c>
+      <c r="E85">
+        <v>0.0501447606389698</v>
+      </c>
+      <c r="F85">
+        <v>-0.05309349828746719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08183143010743324</v>
+        <v>0.08047558205937347</v>
       </c>
       <c r="C86">
-        <v>-0.004790368323725706</v>
+        <v>-0.007040299072528378</v>
       </c>
       <c r="D86">
-        <v>0.02674714554881411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05233649092355935</v>
+      </c>
+      <c r="E86">
+        <v>0.06098581506349213</v>
+      </c>
+      <c r="F86">
+        <v>0.8129390484057165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08901170116133181</v>
+        <v>0.0891818949074773</v>
       </c>
       <c r="C87">
-        <v>0.02677362264067289</v>
+        <v>0.02205502181315306</v>
       </c>
       <c r="D87">
-        <v>0.08560686700314003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08872681354032896</v>
+      </c>
+      <c r="E87">
+        <v>-0.05670955253717937</v>
+      </c>
+      <c r="F87">
+        <v>-0.08796249571571424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06206712443417541</v>
+        <v>0.06098918748518557</v>
       </c>
       <c r="C88">
-        <v>0.006964335188061613</v>
+        <v>0.004338717367739225</v>
       </c>
       <c r="D88">
-        <v>0.05549182005673816</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05469771072239443</v>
+      </c>
+      <c r="E88">
+        <v>0.03331405703852097</v>
+      </c>
+      <c r="F88">
+        <v>-0.001425812789892056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1287136386241395</v>
+        <v>0.1339194423133414</v>
       </c>
       <c r="C89">
-        <v>0.01493583061969797</v>
+        <v>0.02016044707604196</v>
       </c>
       <c r="D89">
-        <v>-0.2282376658887005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2333337495961424</v>
+      </c>
+      <c r="E89">
+        <v>-0.09075947717845149</v>
+      </c>
+      <c r="F89">
+        <v>-0.01897558405949126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1507922512825627</v>
+        <v>0.1621124932009796</v>
       </c>
       <c r="C90">
-        <v>0.03667939085745547</v>
+        <v>0.04292097285226337</v>
       </c>
       <c r="D90">
-        <v>-0.2557125112735627</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2591684994062809</v>
+      </c>
+      <c r="E90">
+        <v>-0.1188302178848374</v>
+      </c>
+      <c r="F90">
+        <v>-0.0245861558230586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1260120191267292</v>
+        <v>0.1213748869993343</v>
       </c>
       <c r="C91">
-        <v>0.02655155534429372</v>
+        <v>0.02513169171034995</v>
       </c>
       <c r="D91">
-        <v>-0.01943682805694073</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01465712904363996</v>
+      </c>
+      <c r="E91">
+        <v>0.05685080034854119</v>
+      </c>
+      <c r="F91">
+        <v>0.0258790637409226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1513238775607101</v>
+        <v>0.1549047248863097</v>
       </c>
       <c r="C92">
-        <v>0.02765903770864461</v>
+        <v>0.03333208500797949</v>
       </c>
       <c r="D92">
-        <v>-0.2807526658068122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2843143288390462</v>
+      </c>
+      <c r="E92">
+        <v>-0.1070398945044746</v>
+      </c>
+      <c r="F92">
+        <v>-0.01061942237770834</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1550984693876455</v>
+        <v>0.1646070322703677</v>
       </c>
       <c r="C93">
-        <v>0.03255466275309565</v>
+        <v>0.0375483753157107</v>
       </c>
       <c r="D93">
-        <v>-0.248094553595569</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2518973719669762</v>
+      </c>
+      <c r="E93">
+        <v>-0.07049204133448185</v>
+      </c>
+      <c r="F93">
+        <v>-0.02140880166355584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1289902041493914</v>
+        <v>0.121761246463251</v>
       </c>
       <c r="C94">
-        <v>0.03103842000793404</v>
+        <v>0.02730219660975699</v>
       </c>
       <c r="D94">
-        <v>0.04012641500183915</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04396198303135056</v>
+      </c>
+      <c r="E94">
+        <v>0.06611601153814672</v>
+      </c>
+      <c r="F94">
+        <v>-0.01442783490914184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.126430475978933</v>
+        <v>0.1291220159188783</v>
       </c>
       <c r="C95">
-        <v>0.01308532426513819</v>
+        <v>0.007467785181277993</v>
       </c>
       <c r="D95">
-        <v>0.09634245191350514</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1074480370389917</v>
+      </c>
+      <c r="E95">
+        <v>0.06467877295180043</v>
+      </c>
+      <c r="F95">
+        <v>0.02322509673882389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1588737067467837</v>
+        <v>0.1438757326936808</v>
       </c>
       <c r="C96">
-        <v>-0.9813551454100017</v>
+        <v>-0.9825956660168292</v>
       </c>
       <c r="D96">
-        <v>-0.03502199059600804</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05778305244593607</v>
+      </c>
+      <c r="E96">
+        <v>0.05264956978880133</v>
+      </c>
+      <c r="F96">
+        <v>-0.04246387288937932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1905655617411037</v>
+        <v>0.1937065721445288</v>
       </c>
       <c r="C97">
-        <v>0.003100248208865651</v>
+        <v>0.0004753854945372191</v>
       </c>
       <c r="D97">
-        <v>-0.01986293217432628</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02552300861028344</v>
+      </c>
+      <c r="E97">
+        <v>0.01487159044620484</v>
+      </c>
+      <c r="F97">
+        <v>0.1738353247736009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1949541192562002</v>
+        <v>0.2011155625918164</v>
       </c>
       <c r="C98">
-        <v>0.01650784059030229</v>
+        <v>0.0114149044890382</v>
       </c>
       <c r="D98">
-        <v>0.01258370012460908</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01442546808566437</v>
+      </c>
+      <c r="E98">
+        <v>-0.1012226841198614</v>
+      </c>
+      <c r="F98">
+        <v>0.0832323998594718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05785708298033712</v>
+        <v>0.0575256325192929</v>
       </c>
       <c r="C99">
-        <v>0.0001605309173594576</v>
+        <v>-0.002151792138999378</v>
       </c>
       <c r="D99">
-        <v>0.04389846201277909</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04913316172786603</v>
+      </c>
+      <c r="E99">
+        <v>0.03100844985374316</v>
+      </c>
+      <c r="F99">
+        <v>0.006188775057065772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1397883503752307</v>
+        <v>0.1299361140934374</v>
       </c>
       <c r="C100">
-        <v>-0.03658802980854689</v>
+        <v>-0.04600146859508469</v>
       </c>
       <c r="D100">
-        <v>0.4199280945994549</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3776409867960711</v>
+      </c>
+      <c r="E100">
+        <v>-0.8862132196495455</v>
+      </c>
+      <c r="F100">
+        <v>-0.009688297062582793</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02579998697602587</v>
+        <v>0.02800489795663142</v>
       </c>
       <c r="C101">
-        <v>0.01001034810178945</v>
+        <v>0.009200754202364369</v>
       </c>
       <c r="D101">
-        <v>0.03193963262597615</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03393762510484048</v>
+      </c>
+      <c r="E101">
+        <v>0.01621232105333625</v>
+      </c>
+      <c r="F101">
+        <v>0.02133408350244155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
